--- a/DEV/Microservicios-Product-app/Plan-pricing-controller/US3_CP_DEV.xlsx
+++ b/DEV/Microservicios-Product-app/Plan-pricing-controller/US3_CP_DEV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\DEV\Microservicios-Product-app\Plan-pricing-controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23C2AD8-54F5-4807-B102-63F8D21A649B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E82CC-FC21-4103-9285-FC342EEB233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7989457-68F4-4A2A-B67F-64262A68E569}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
